--- a/TextMining/Ro/Verbs.Ro.Other.xlsx
+++ b/TextMining/Ro/Verbs.Ro.Other.xlsx
@@ -88,979 +88,979 @@
     <t xml:space="preserve">redija</t>
   </si>
   <si>
+    <t xml:space="preserve">reesconta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refeca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reflectoriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refracta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrișa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refugia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reglementa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regreta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regularisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulariza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regurgita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relativiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relaxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">releva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reliefa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remorca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remunera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rentabiliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renunța</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repartiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repertoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repertoriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reproșa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repugna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respinge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restaura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restitui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retroceda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrograda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retușa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reuși</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revanșa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revendica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverbera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revigora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revizui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revolta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revoluționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revoluționariza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezeca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezerva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezinifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezolva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezulta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reabilita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reabona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaborda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaclimatiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reacoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reacorda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactualiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readapta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readmite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readmonesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readormi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">readuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaerisi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reafirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reafla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reagrava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reajusta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realinia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realipi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">realtoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reamenaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaminti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reamplasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reamputa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reanaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reanclanșa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reangaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reanima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reapărea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaprinde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaproviziona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rearanja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rearbitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rearginta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reașeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasigura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reatribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebandaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebobina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reboteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalcula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recântări</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăpăta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recarbura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăsători</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recâștiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recerceta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recicla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recircula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reciti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclădi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoloniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recombina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recomenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompartimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconcilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recondiționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfigura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsidera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsolida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstitui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstrui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconverti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconvoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuceri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redefini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeschide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redescoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeștepta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redimensiona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rediscuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redispărea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redobândi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reechilibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reedita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeduca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeșalona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reevalua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexpedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refierbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refolosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reformula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regândi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regăsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regenera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regrupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reieși</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîmbărbăta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîmpăduri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîmpărți</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reimporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reimprima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîmprospăta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînălța</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînarma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîncadra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîncălzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reincarna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîncepe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînchega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînchide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînchiria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîncolți</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîncorpora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînfășura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinfecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînființa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînflori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînmatricula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînnoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînnoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînsănătoși</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînscăuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinstala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinstaura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînsufleți</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînșuruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntâlni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reintegra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinteroga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinterpreta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntineri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntoarce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reintra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntregi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntrema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reintroduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reîntrupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînturna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinventaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînverzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinvesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reînvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reinvita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reitera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rejudeca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relansa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remărita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rememora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remilitariza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remobila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remonta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renaște</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reocupa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorândui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorchestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reordona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reordonanța</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorganiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reorienta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repagina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repauza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repopula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repovesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprezenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprivatiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reproduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprofila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reprograma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">republica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repurta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resabota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rescrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resimți</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reșlefui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resorbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restabili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restatornici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restrânge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restructura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resuscita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retălmăci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reține</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retipări</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retopi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retraduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrăi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retranscrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retransmite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrimite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reumple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reunifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reutila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revaccina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revalida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revalorifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revaloriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revărsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revinde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revitaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revopsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rezidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repatria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reșapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reșarja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reacționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recădea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recapitula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recomanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reculege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recunoaște</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurge</t>
+  </si>
+  <si>
     <t xml:space="preserve">redresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reesconta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reflectoriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refracta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrișa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refugia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refuza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reglementa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regularisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulariza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regurgita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relaționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relativiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relaxa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">releva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reliefa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remorca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remunera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rentabiliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renunța</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repartiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repertoria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repertoriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repezi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reporta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reproșa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repugna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respinge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">respira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restaura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restitui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reteza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retroceda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retrograda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retușa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reuși</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revanșa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revendica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverbera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revigora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revizui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revolta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revoluționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revoluționariza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezerva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezinifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezolva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reabilita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reabona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaborda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaclimatiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reacoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reacorda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactualiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readapta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readmite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readmonesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readormi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readuce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">readuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaerisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reafirma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reafla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reagrava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reajusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realinia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realipi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">realtoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reamenaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaminti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reamplasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reamputa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reanaliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reanclanșa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reangaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reanima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reapărea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaprinde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaproviziona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rearanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rearbitra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rearginta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reașeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasigura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasocia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reatribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebandaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebobina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reboteza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalcula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recântări</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăpăta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recarbura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăsători</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recâștiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recerceta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rechema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recicla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recircula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reciti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclădi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoloniza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recombina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recomenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompartimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconcilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recondiționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfigura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfirma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsidera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsolida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstitui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstrui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconverti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconvoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recuceri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recurba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redefini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeschide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redescoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeștepta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeveni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redimensiona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rediscuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redispărea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redobândi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reechilibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reedita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeduca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeșalona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reevalua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexpedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexporta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refierbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refolosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reformula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regândi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regăsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regenera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regrupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reieși</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîmbărbăta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîmpăduri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîmpărți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reimporta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reimprima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîmprospăta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînălța</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîncadra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîncălzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reincarna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîncepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînchega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînchide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînchiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîncolți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîncorpora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînfășura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinfecta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînființa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînflori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînmatricula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînnoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînnoi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînsănătoși</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînscăuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinstala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinstaura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînsufleți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînșuruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntâlni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reintegra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinteroga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinterpreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntineri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntoarce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reintra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntregi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntrema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reintroduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reîntrupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînturna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinventaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînverzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinvesti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reînvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reinvita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reitera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rejudeca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relansa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remărita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rememora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remilitariza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remobila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remonta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renaște</t>
-  </si>
-  <si>
-    <t xml:space="preserve">renega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reocupa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reorândui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reorchestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reordona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reordonanța</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reorganiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reorienta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repagina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repauza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replanta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">replia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repopula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repovesti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprezenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprimi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprivatiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reproduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprofila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reprograma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">republica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repurta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resabota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rescrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resimți</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reșlefui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resorbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restabili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restatornici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restrânge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">restructura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resuscita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retălmăci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reține</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retipări</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retopi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retraduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retrăi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retranscrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retransmite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retrata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retrimite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reumple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reunifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reutila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revaccina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revalida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revalorifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revaloriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revărsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reveni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revinde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revitaliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">revopsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rezidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repatria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reșapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reșarja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reacționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recădea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recapitula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recomanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reculege</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recunoaște</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recurge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reda</t>
   </si>
   <si>
     <t xml:space="preserve">reduce</t>
@@ -1240,6 +1240,36 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF8000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFB66C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1310,11 +1340,11 @@
   </sheetPr>
   <dimension ref="A1:C364"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A330" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B339" activeCellId="0" sqref="B339"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
@@ -1544,7 +1574,7 @@
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1555,7 +1585,7 @@
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1566,7 +1596,7 @@
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1610,7 +1640,7 @@
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1621,7 +1651,7 @@
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -2204,7 +2234,7 @@
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="0" t="n">
@@ -2215,7 +2245,7 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="0" t="n">
@@ -2325,7 +2355,7 @@
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="0" t="n">
@@ -2336,7 +2366,7 @@
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="0" t="n">
@@ -2402,11 +2432,11 @@
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="0" t="s">
         <v>100</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2534,7 +2564,7 @@
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="0" t="n">
@@ -2545,7 +2575,7 @@
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="0" t="n">
@@ -2567,7 +2597,7 @@
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -2578,7 +2608,7 @@
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="0" t="n">
@@ -2732,7 +2762,7 @@
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="0" t="n">
@@ -2743,7 +2773,7 @@
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="0" t="n">
@@ -2897,7 +2927,7 @@
       <c r="A144" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C144" s="0" t="n">
@@ -2908,7 +2938,7 @@
       <c r="A145" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C145" s="0" t="n">
@@ -3029,7 +3059,7 @@
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="0" t="n">
@@ -3040,7 +3070,7 @@
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="0" t="s">
         <v>158</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -3172,7 +3202,7 @@
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="0" t="n">
@@ -3183,7 +3213,7 @@
       <c r="A170" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="0" t="s">
         <v>171</v>
       </c>
       <c r="C170" s="0" t="n">
@@ -3260,7 +3290,7 @@
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C177" s="0" t="n">
@@ -3271,7 +3301,7 @@
       <c r="A178" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="0" t="s">
         <v>179</v>
       </c>
       <c r="C178" s="0" t="n">
@@ -3293,7 +3323,7 @@
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B180" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C180" s="0" t="n">
@@ -3304,7 +3334,7 @@
       <c r="A181" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="0" t="s">
         <v>182</v>
       </c>
       <c r="C181" s="0" t="n">
@@ -3359,7 +3389,7 @@
       <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B186" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C186" s="0" t="n">
@@ -5108,7 +5138,7 @@
       <c r="A345" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="B345" s="4" t="s">
+      <c r="B345" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C345" s="0" t="n">

--- a/TextMining/Ro/Verbs.Ro.Other.xlsx
+++ b/TextMining/Ro/Verbs.Ro.Other.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">reflectoriza</t>
   </si>
   <si>
+    <t xml:space="preserve">reflua</t>
+  </si>
+  <si>
     <t xml:space="preserve">refracta</t>
   </si>
   <si>
@@ -448,12 +451,43 @@
     <t xml:space="preserve">reasocia</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">reata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ș</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">reatribui</t>
   </si>
   <si>
     <t xml:space="preserve">reaudia</t>
   </si>
   <si>
+    <t xml:space="preserve">rebadijona</t>
+  </si>
+  <si>
     <t xml:space="preserve">rebandaja</t>
   </si>
   <si>
@@ -466,6 +500,9 @@
     <t xml:space="preserve">reboteza</t>
   </si>
   <si>
+    <t xml:space="preserve">recalcifica</t>
+  </si>
+  <si>
     <t xml:space="preserve">recalcula</t>
   </si>
   <si>
@@ -478,6 +515,9 @@
     <t xml:space="preserve">recântări</t>
   </si>
   <si>
+    <t xml:space="preserve">recanula</t>
+  </si>
+  <si>
     <t xml:space="preserve">recăpăta</t>
   </si>
   <si>
@@ -490,6 +530,12 @@
     <t xml:space="preserve">recâștiga</t>
   </si>
   <si>
+    <t xml:space="preserve">recateteriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recauteriza</t>
+  </si>
+  <si>
     <t xml:space="preserve">recerceta</t>
   </si>
   <si>
@@ -517,6 +563,9 @@
     <t xml:space="preserve">recoace</t>
   </si>
   <si>
+    <t xml:space="preserve">recolaba</t>
+  </si>
+  <si>
     <t xml:space="preserve">recoloniza</t>
   </si>
   <si>
@@ -574,6 +623,9 @@
     <t xml:space="preserve">recrea</t>
   </si>
   <si>
+    <t xml:space="preserve">recristaliza</t>
+  </si>
+  <si>
     <t xml:space="preserve">recroma</t>
   </si>
   <si>
@@ -604,12 +656,18 @@
     <t xml:space="preserve">redeveni</t>
   </si>
   <si>
+    <t xml:space="preserve">rediagnostica</t>
+  </si>
+  <si>
     <t xml:space="preserve">redimensiona</t>
   </si>
   <si>
     <t xml:space="preserve">rediscuta</t>
   </si>
   <si>
+    <t xml:space="preserve">redisocia</t>
+  </si>
+  <si>
     <t xml:space="preserve">redispărea</t>
   </si>
   <si>
@@ -619,6 +677,9 @@
     <t xml:space="preserve">redistribui</t>
   </si>
   <si>
+    <t xml:space="preserve">redizolva</t>
+  </si>
+  <si>
     <t xml:space="preserve">redobândi</t>
   </si>
   <si>
@@ -655,6 +716,9 @@
     <t xml:space="preserve">refierbe</t>
   </si>
   <si>
+    <t xml:space="preserve">refiltra</t>
+  </si>
+  <si>
     <t xml:space="preserve">refolosi</t>
   </si>
   <si>
@@ -682,6 +746,9 @@
     <t xml:space="preserve">reîmbărbăta</t>
   </si>
   <si>
+    <t xml:space="preserve">reîmbina</t>
+  </si>
+  <si>
     <t xml:space="preserve">reîmpăduri</t>
   </si>
   <si>
@@ -724,6 +791,9 @@
     <t xml:space="preserve">reînchiria</t>
   </si>
   <si>
+    <t xml:space="preserve">reinciza</t>
+  </si>
+  <si>
     <t xml:space="preserve">reîncolți</t>
   </si>
   <si>
@@ -742,6 +812,9 @@
     <t xml:space="preserve">reînflori</t>
   </si>
   <si>
+    <t xml:space="preserve">reinjecta</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînmatricula</t>
   </si>
   <si>
@@ -751,6 +824,9 @@
     <t xml:space="preserve">reînnoi</t>
   </si>
   <si>
+    <t xml:space="preserve">reînregistra</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînsănătoși</t>
   </si>
   <si>
@@ -781,6 +857,9 @@
     <t xml:space="preserve">reinterpreta</t>
   </si>
   <si>
+    <t xml:space="preserve">reinterveni</t>
+  </si>
+  <si>
     <t xml:space="preserve">reîntineri</t>
   </si>
   <si>
@@ -802,6 +881,9 @@
     <t xml:space="preserve">reîntrupa</t>
   </si>
   <si>
+    <t xml:space="preserve">reintuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînturna</t>
   </si>
   <si>
@@ -814,6 +896,9 @@
     <t xml:space="preserve">reinvesti</t>
   </si>
   <si>
+    <t xml:space="preserve">reinvestiga</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînvia</t>
   </si>
   <si>
@@ -829,6 +914,9 @@
     <t xml:space="preserve">relansa</t>
   </si>
   <si>
+    <t xml:space="preserve">religatura</t>
+  </si>
+  <si>
     <t xml:space="preserve">relua</t>
   </si>
   <si>
@@ -841,9 +929,15 @@
     <t xml:space="preserve">remilitariza</t>
   </si>
   <si>
+    <t xml:space="preserve">remineraliza</t>
+  </si>
+  <si>
     <t xml:space="preserve">remobila</t>
   </si>
   <si>
+    <t xml:space="preserve">remodela</t>
+  </si>
+  <si>
     <t xml:space="preserve">remonta</t>
   </si>
   <si>
@@ -856,6 +950,9 @@
     <t xml:space="preserve">reocupa</t>
   </si>
   <si>
+    <t xml:space="preserve">reopera</t>
+  </si>
+  <si>
     <t xml:space="preserve">reorândui</t>
   </si>
   <si>
@@ -877,9 +974,18 @@
     <t xml:space="preserve">repagina</t>
   </si>
   <si>
+    <t xml:space="preserve">repansa</t>
+  </si>
+  <si>
     <t xml:space="preserve">repauza</t>
   </si>
   <si>
+    <t xml:space="preserve">reperfuza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repermeabiliza</t>
+  </si>
+  <si>
     <t xml:space="preserve">repica</t>
   </si>
   <si>
@@ -934,15 +1040,55 @@
     <t xml:space="preserve">reșlefui</t>
   </si>
   <si>
+    <t xml:space="preserve">resolidifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resonda</t>
+  </si>
+  <si>
     <t xml:space="preserve">resorbi</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">resp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ă</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">la</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">restabili</t>
   </si>
   <si>
     <t xml:space="preserve">restatornici</t>
   </si>
   <si>
+    <t xml:space="preserve">restenoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">restrânge</t>
   </si>
   <si>
@@ -952,6 +1098,9 @@
     <t xml:space="preserve">resuscita</t>
   </si>
   <si>
+    <t xml:space="preserve">resutura</t>
+  </si>
+  <si>
     <t xml:space="preserve">retălmăci</t>
   </si>
   <si>
@@ -1009,16 +1158,25 @@
     <t xml:space="preserve">revărsa</t>
   </si>
   <si>
+    <t xml:space="preserve">revasculariza</t>
+  </si>
+  <si>
     <t xml:space="preserve">revedea</t>
   </si>
   <si>
     <t xml:space="preserve">reveni</t>
   </si>
   <si>
+    <t xml:space="preserve">reverifica</t>
+  </si>
+  <si>
     <t xml:space="preserve">revinde</t>
   </si>
   <si>
     <t xml:space="preserve">revitaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revizualiza</t>
   </si>
   <si>
     <t xml:space="preserve">revopsi</t>
@@ -1127,7 +1285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1148,6 +1306,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1338,13 +1501,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A330" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B339" activeCellId="0" sqref="B339"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
@@ -1640,7 +1803,7 @@
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1651,7 +1814,7 @@
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -2234,7 +2397,7 @@
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="0" t="n">
@@ -2245,7 +2408,7 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="0" t="n">
@@ -2355,7 +2518,7 @@
       <c r="A92" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C92" s="0" t="n">
@@ -2366,7 +2529,7 @@
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="0" t="n">
@@ -2432,11 +2595,11 @@
       <c r="A99" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2564,7 +2727,7 @@
       <c r="A111" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="0" t="s">
         <v>112</v>
       </c>
       <c r="C111" s="0" t="n">
@@ -2575,7 +2738,7 @@
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="0" t="n">
@@ -2597,7 +2760,7 @@
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -2608,7 +2771,7 @@
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="0" t="n">
@@ -2762,7 +2925,7 @@
       <c r="A129" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="0" t="s">
         <v>130</v>
       </c>
       <c r="C129" s="0" t="n">
@@ -2773,7 +2936,7 @@
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="0" t="n">
@@ -2927,7 +3090,7 @@
       <c r="A144" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="0" t="s">
         <v>145</v>
       </c>
       <c r="C144" s="0" t="n">
@@ -2960,7 +3123,7 @@
       <c r="A147" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C147" s="0" t="n">
@@ -3059,7 +3222,7 @@
       <c r="A156" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="0" t="s">
         <v>157</v>
       </c>
       <c r="C156" s="0" t="n">
@@ -3136,7 +3299,7 @@
       <c r="A163" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="0" t="n">
@@ -3202,7 +3365,7 @@
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="0" t="n">
@@ -3323,7 +3486,7 @@
       <c r="A180" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="0" t="s">
         <v>181</v>
       </c>
       <c r="C180" s="0" t="n">
@@ -3378,7 +3541,7 @@
       <c r="A185" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B185" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C185" s="0" t="n">
@@ -3389,7 +3552,7 @@
       <c r="A186" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="0" t="s">
         <v>187</v>
       </c>
       <c r="C186" s="0" t="n">
@@ -3411,7 +3574,7 @@
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B188" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C188" s="0" t="n">
@@ -3488,7 +3651,7 @@
       <c r="A195" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B195" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C195" s="0" t="n">
@@ -3510,7 +3673,7 @@
       <c r="A197" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="0" t="s">
         <v>198</v>
       </c>
       <c r="C197" s="0" t="n">
@@ -3631,7 +3794,7 @@
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B208" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C208" s="0" t="n">
@@ -3642,7 +3805,7 @@
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C209" s="0" t="n">
@@ -4291,7 +4454,7 @@
       <c r="A268" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="B268" s="0" t="s">
         <v>269</v>
       </c>
       <c r="C268" s="0" t="n">
@@ -4522,7 +4685,7 @@
       <c r="A289" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B289" s="0" t="s">
+      <c r="B289" s="1" t="s">
         <v>290</v>
       </c>
       <c r="C289" s="0" t="n">
@@ -4621,7 +4784,7 @@
       <c r="A298" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="0" t="s">
         <v>299</v>
       </c>
       <c r="C298" s="0" t="n">
@@ -4632,7 +4795,7 @@
       <c r="A299" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="0" t="s">
         <v>300</v>
       </c>
       <c r="C299" s="0" t="n">
@@ -4918,7 +5081,7 @@
       <c r="A325" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="0" t="s">
+      <c r="B325" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C325" s="0" t="n">
@@ -4929,7 +5092,7 @@
       <c r="A326" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="0" t="s">
+      <c r="B326" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C326" s="0" t="n">
@@ -5017,198 +5180,198 @@
       <c r="A334" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="0" t="s">
         <v>335</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="0" t="s">
         <v>336</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="0" t="s">
         <v>337</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="n">
         <v>336</v>
       </c>
-      <c r="B337" s="4" t="s">
+      <c r="B337" s="0" t="s">
         <v>338</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="B338" s="4" t="s">
+      <c r="B338" s="0" t="s">
         <v>339</v>
       </c>
       <c r="C338" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="0" t="s">
         <v>340</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="B340" s="4" t="s">
+      <c r="B340" s="0" t="s">
         <v>341</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="0" t="s">
         <v>342</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="0" t="s">
         <v>343</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="0" t="s">
         <v>344</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="0" t="s">
         <v>345</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="0" t="s">
         <v>346</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" s="0" t="s">
         <v>347</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" s="0" t="s">
         <v>348</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" s="0" t="s">
         <v>349</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="n">
         <v>348</v>
       </c>
-      <c r="B349" s="4" t="s">
+      <c r="B349" s="0" t="s">
         <v>350</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="B350" s="4" t="s">
+      <c r="B350" s="0" t="s">
         <v>351</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" s="0" t="s">
         <v>352</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5219,62 +5382,62 @@
         <v>353</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="n">
         <v>352</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="0" t="s">
         <v>354</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="n">
         <v>353</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="0" t="s">
         <v>355</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="0" t="s">
         <v>356</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="B356" s="4" t="s">
+      <c r="B356" s="0" t="s">
         <v>357</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="n">
         <v>356</v>
       </c>
-      <c r="B357" s="4" t="s">
+      <c r="B357" s="0" t="s">
         <v>358</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,7 +5448,7 @@
         <v>359</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,61 +5459,457 @@
         <v>360</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="n">
         <v>359</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" s="0" t="s">
         <v>361</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" s="0" t="s">
         <v>362</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" s="0" t="s">
         <v>363</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="0" t="s">
         <v>364</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="0" t="s">
         <v>365</v>
       </c>
       <c r="C364" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C392" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C393" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C394" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C395" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C396" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C397" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C398" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C399" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C400" s="0" t="n">
         <v>4</v>
       </c>
     </row>

--- a/TextMining/Ro/Verbs.Ro.Other.xlsx
+++ b/TextMining/Ro/Verbs.Ro.Other.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -166,6 +166,9 @@
     <t xml:space="preserve">reliefa</t>
   </si>
   <si>
+    <t xml:space="preserve">reloca</t>
+  </si>
+  <si>
     <t xml:space="preserve">remaia</t>
   </si>
   <si>
@@ -334,6 +337,9 @@
     <t xml:space="preserve">reaborda</t>
   </si>
   <si>
+    <t xml:space="preserve">reacidifia</t>
+  </si>
+  <si>
     <t xml:space="preserve">reaclimatiza</t>
   </si>
   <si>
@@ -382,6 +388,9 @@
     <t xml:space="preserve">reajusta</t>
   </si>
   <si>
+    <t xml:space="preserve">realcaliniza</t>
+  </si>
+  <si>
     <t xml:space="preserve">realege</t>
   </si>
   <si>
@@ -449,6 +458,264 @@
   </si>
   <si>
     <t xml:space="preserve">reasocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reatașa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reatribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebadijona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebandaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebobina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reboteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalcifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalcula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recanaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recântări</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recanula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăpăta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recarbura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăsători</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recâștiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recateteriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recauteriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recerceta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recicla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recircula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reciti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclădi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoloniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recombina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recomenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompartimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconcilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recondiționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfigura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsidera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsolida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstitui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstrui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconverti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconvoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recristaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuceri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redefini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeschide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redescoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeștepta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rediagnostica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redilata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redimensiona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rediscuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redisocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redispărea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redizolva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redobândi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reechilibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reedita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeduca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeșalona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reevalua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexpedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refierbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refiltra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refolosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reformula</t>
   </si>
   <si>
     <r>
@@ -458,7 +725,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">reata</t>
+      <t xml:space="preserve">refunc</t>
     </r>
     <r>
       <rPr>
@@ -466,7 +733,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ș</t>
+      <t xml:space="preserve">ț</t>
     </r>
     <r>
       <rPr>
@@ -475,256 +742,10 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">a</t>
+      <t xml:space="preserve">ionaliza</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">reatribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebadijona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebandaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebobina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reboteza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalcifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalcula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recântări</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recanula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăpăta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recarbura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăsători</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recâștiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recateteriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recauteriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recerceta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rechema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recicla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recircula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reciti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclădi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoloniza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recombina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recomenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompartimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconcilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recondiționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfigura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfirma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsidera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsolida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstitui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstrui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconverti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconvoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recristaliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recuceri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recurba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redefini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeschide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redescoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeștepta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeveni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rediagnostica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redimensiona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rediscuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redisocia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redispărea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redizolva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redobândi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reechilibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reedita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeduca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeșalona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reevalua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexpedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexporta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refierbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refiltra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refolosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reformula</t>
-  </si>
-  <si>
     <t xml:space="preserve">regândi</t>
   </si>
   <si>
@@ -740,6 +761,9 @@
     <t xml:space="preserve">regrupa</t>
   </si>
   <si>
+    <t xml:space="preserve">rehidrata</t>
+  </si>
+  <si>
     <t xml:space="preserve">reieși</t>
   </si>
   <si>
@@ -779,6 +803,9 @@
     <t xml:space="preserve">reincarna</t>
   </si>
   <si>
+    <t xml:space="preserve">reincendia</t>
+  </si>
+  <si>
     <t xml:space="preserve">reîncepe</t>
   </si>
   <si>
@@ -806,9 +833,15 @@
     <t xml:space="preserve">reinfecta</t>
   </si>
   <si>
+    <t xml:space="preserve">reinfesta</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînființa</t>
   </si>
   <si>
+    <t xml:space="preserve">reinflama</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînflori</t>
   </si>
   <si>
@@ -908,6 +941,9 @@
     <t xml:space="preserve">reitera</t>
   </si>
   <si>
+    <t xml:space="preserve">reizbucni</t>
+  </si>
+  <si>
     <t xml:space="preserve">rejudeca</t>
   </si>
   <si>
@@ -971,6 +1007,9 @@
     <t xml:space="preserve">reorienta</t>
   </si>
   <si>
+    <t xml:space="preserve">reoxigena</t>
+  </si>
+  <si>
     <t xml:space="preserve">repagina</t>
   </si>
   <si>
@@ -992,6 +1031,9 @@
     <t xml:space="preserve">replanta</t>
   </si>
   <si>
+    <t xml:space="preserve">replasa</t>
+  </si>
+  <si>
     <t xml:space="preserve">replia</t>
   </si>
   <si>
@@ -1001,6 +1043,9 @@
     <t xml:space="preserve">repovesti</t>
   </si>
   <si>
+    <t xml:space="preserve">represuriza</t>
+  </si>
+  <si>
     <t xml:space="preserve">reprezenta</t>
   </si>
   <si>
@@ -1019,6 +1064,9 @@
     <t xml:space="preserve">reprograma</t>
   </si>
   <si>
+    <t xml:space="preserve">reprotona</t>
+  </si>
+  <si>
     <t xml:space="preserve">republica</t>
   </si>
   <si>
@@ -1049,32 +1097,7 @@
     <t xml:space="preserve">resorbi</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">resp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ă</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">la</t>
-    </r>
+    <t xml:space="preserve">respăla</t>
   </si>
   <si>
     <t xml:space="preserve">restabili</t>
@@ -1373,7 +1396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1383,6 +1406,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1501,13 +1528,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C400"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C329" activeCellId="0" sqref="C329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
@@ -2408,7 +2435,7 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="0" t="n">
@@ -2419,7 +2446,7 @@
       <c r="A83" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="0" t="n">
@@ -2529,7 +2556,7 @@
       <c r="A93" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C93" s="0" t="n">
@@ -2540,7 +2567,7 @@
       <c r="A94" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C94" s="0" t="n">
@@ -2606,11 +2633,11 @@
       <c r="A100" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,7 +2677,7 @@
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="0" t="n">
@@ -2738,7 +2765,7 @@
       <c r="A112" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="0" t="s">
         <v>113</v>
       </c>
       <c r="C112" s="0" t="n">
@@ -2760,7 +2787,7 @@
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -2771,7 +2798,7 @@
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="0" t="n">
@@ -2793,7 +2820,7 @@
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="0" t="n">
@@ -2837,7 +2864,7 @@
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="0" t="n">
@@ -2936,7 +2963,7 @@
       <c r="A130" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="0" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="0" t="n">
@@ -2969,7 +2996,7 @@
       <c r="A133" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="0" t="n">
@@ -3123,7 +3150,7 @@
       <c r="A147" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="0" t="s">
         <v>148</v>
       </c>
       <c r="C147" s="0" t="n">
@@ -3156,7 +3183,7 @@
       <c r="A150" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="0" t="n">
@@ -3233,7 +3260,7 @@
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -3299,7 +3326,7 @@
       <c r="A163" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C163" s="0" t="n">
@@ -3343,7 +3370,7 @@
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B167" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="0" t="n">
@@ -3365,7 +3392,7 @@
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B169" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="0" t="n">
@@ -3453,7 +3480,7 @@
       <c r="A177" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C177" s="0" t="n">
@@ -3508,7 +3535,7 @@
       <c r="A182" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B182" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C182" s="0" t="n">
@@ -3541,7 +3568,7 @@
       <c r="A185" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="0" t="s">
         <v>186</v>
       </c>
       <c r="C185" s="0" t="n">
@@ -3574,7 +3601,7 @@
       <c r="A188" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="0" t="s">
         <v>189</v>
       </c>
       <c r="C188" s="0" t="n">
@@ -3596,7 +3623,7 @@
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B190" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C190" s="0" t="n">
@@ -3629,7 +3656,7 @@
       <c r="A193" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B193" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C193" s="0" t="n">
@@ -3651,7 +3678,7 @@
       <c r="A195" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="0" t="s">
         <v>196</v>
       </c>
       <c r="C195" s="0" t="n">
@@ -3706,7 +3733,7 @@
       <c r="A200" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B200" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C200" s="0" t="n">
@@ -3794,7 +3821,7 @@
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C208" s="0" t="n">
@@ -3805,7 +3832,7 @@
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="B209" s="0" t="s">
         <v>210</v>
       </c>
       <c r="C209" s="0" t="n">
@@ -3860,7 +3887,7 @@
       <c r="A214" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B214" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C214" s="0" t="n">
@@ -3871,7 +3898,7 @@
       <c r="A215" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B215" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C215" s="0" t="n">
@@ -4267,7 +4294,7 @@
       <c r="A251" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="B251" s="0" t="s">
+      <c r="B251" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C251" s="0" t="n">
@@ -4377,7 +4404,7 @@
       <c r="A261" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="B261" s="0" t="s">
+      <c r="B261" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C261" s="0" t="n">
@@ -4399,7 +4426,7 @@
       <c r="A263" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="B263" s="0" t="s">
+      <c r="B263" s="3" t="s">
         <v>264</v>
       </c>
       <c r="C263" s="0" t="n">
@@ -4685,7 +4712,7 @@
       <c r="A289" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="B289" s="0" t="s">
         <v>290</v>
       </c>
       <c r="C289" s="0" t="n">
@@ -4773,7 +4800,7 @@
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="0" t="s">
+      <c r="B297" s="3" t="s">
         <v>298</v>
       </c>
       <c r="C297" s="0" t="n">
@@ -4817,7 +4844,7 @@
       <c r="A301" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="0" t="s">
+      <c r="B301" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C301" s="0" t="n">
@@ -5015,7 +5042,7 @@
       <c r="A319" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="B319" s="0" t="s">
+      <c r="B319" s="3" t="s">
         <v>320</v>
       </c>
       <c r="C319" s="0" t="n">
@@ -5081,7 +5108,7 @@
       <c r="A325" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="0" t="s">
         <v>326</v>
       </c>
       <c r="C325" s="0" t="n">
@@ -5092,7 +5119,7 @@
       <c r="A326" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="0" t="s">
         <v>327</v>
       </c>
       <c r="C326" s="0" t="n">
@@ -5103,7 +5130,7 @@
       <c r="A327" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="0" t="s">
+      <c r="B327" s="3" t="s">
         <v>328</v>
       </c>
       <c r="C327" s="0" t="n">
@@ -5224,7 +5251,7 @@
       <c r="A338" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="B338" s="0" t="s">
+      <c r="B338" s="3" t="s">
         <v>339</v>
       </c>
       <c r="C338" s="0" t="n">
@@ -5257,7 +5284,7 @@
       <c r="A341" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="B341" s="0" t="s">
+      <c r="B341" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C341" s="0" t="n">
@@ -5268,7 +5295,7 @@
       <c r="A342" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="B342" s="0" t="s">
+      <c r="B342" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C342" s="0" t="n">
@@ -5576,176 +5603,176 @@
       <c r="A370" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="0" t="s">
         <v>371</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="0" t="s">
         <v>372</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="0" t="s">
         <v>373</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="n">
         <v>372</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" s="0" t="s">
         <v>374</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="B374" s="4" t="s">
+      <c r="B374" s="0" t="s">
         <v>375</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="B375" s="0" t="s">
         <v>376</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="B376" s="4" t="s">
+      <c r="B376" s="0" t="s">
         <v>377</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="n">
         <v>376</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" s="0" t="s">
         <v>378</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="n">
         <v>377</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="B378" s="0" t="s">
         <v>379</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="B379" s="0" t="s">
         <v>380</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="n">
         <v>379</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B380" s="0" t="s">
         <v>381</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="B381" s="0" t="s">
         <v>382</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="n">
         <v>381</v>
       </c>
-      <c r="B382" s="4" t="s">
+      <c r="B382" s="0" t="s">
         <v>383</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="n">
         <v>382</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" s="0" t="s">
         <v>384</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="n">
         <v>383</v>
       </c>
-      <c r="B384" s="4" t="s">
+      <c r="B384" s="0" t="s">
         <v>385</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="n">
         <v>384</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" s="0" t="s">
         <v>386</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,7 +5783,7 @@
         <v>387</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,25 +5794,25 @@
         <v>388</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="B388" s="0" t="s">
+      <c r="B388" s="4" t="s">
         <v>389</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="5" t="s">
         <v>390</v>
       </c>
       <c r="C389" s="0" t="n">
@@ -5796,7 +5823,7 @@
       <c r="A390" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C390" s="0" t="n">
@@ -5818,7 +5845,7 @@
       <c r="A392" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="B392" s="4" t="s">
+      <c r="B392" s="5" t="s">
         <v>393</v>
       </c>
       <c r="C392" s="0" t="n">
@@ -5829,7 +5856,7 @@
       <c r="A393" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B393" s="5" t="s">
         <v>394</v>
       </c>
       <c r="C393" s="0" t="n">
@@ -5840,7 +5867,7 @@
       <c r="A394" s="0" t="n">
         <v>393</v>
       </c>
-      <c r="B394" s="0" t="s">
+      <c r="B394" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C394" s="0" t="n">
@@ -5851,7 +5878,7 @@
       <c r="A395" s="0" t="n">
         <v>394</v>
       </c>
-      <c r="B395" s="0" t="s">
+      <c r="B395" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C395" s="0" t="n">
@@ -5862,7 +5889,7 @@
       <c r="A396" s="0" t="n">
         <v>395</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B396" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C396" s="0" t="n">
@@ -5884,7 +5911,7 @@
       <c r="A398" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="B398" s="1" t="s">
+      <c r="B398" s="5" t="s">
         <v>399</v>
       </c>
       <c r="C398" s="0" t="n">
@@ -5895,7 +5922,7 @@
       <c r="A399" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="B399" s="1" t="s">
+      <c r="B399" s="5" t="s">
         <v>400</v>
       </c>
       <c r="C399" s="0" t="n">
@@ -5906,10 +5933,186 @@
       <c r="A400" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="B400" s="1" t="s">
+      <c r="B400" s="5" t="s">
         <v>401</v>
       </c>
       <c r="C400" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C401" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C402" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C403" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C404" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C405" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C406" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C407" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C408" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C409" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C411" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C412" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C413" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C414" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C415" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C416" s="0" t="n">
         <v>4</v>
       </c>
     </row>

--- a/TextMining/Ro/Verbs.Ro.Other.xlsx
+++ b/TextMining/Ro/Verbs.Ro.Other.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -337,6 +337,9 @@
     <t xml:space="preserve">reaborda</t>
   </si>
   <si>
+    <t xml:space="preserve">reaburi</t>
+  </si>
+  <si>
     <t xml:space="preserve">reacidifia</t>
   </si>
   <si>
@@ -415,6 +418,9 @@
     <t xml:space="preserve">reaminti</t>
   </si>
   <si>
+    <t xml:space="preserve">reamorsa</t>
+  </si>
+  <si>
     <t xml:space="preserve">reamplasa</t>
   </si>
   <si>
@@ -449,273 +455,6 @@
   </si>
   <si>
     <t xml:space="preserve">rearginta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reașeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasigura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reasocia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reatașa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reatribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaudia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebadijona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebandaja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rebobina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reboteza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalcifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalcula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recalifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recanaliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recântări</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recanula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăpăta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recarbura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recăsători</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recâștiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recateteriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recauteriza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recerceta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rechema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recicla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recircula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reciti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclădi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reclasifica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolaba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recoloniza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recombina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recomenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompartimenta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompensa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recompune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconcilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recondiționa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfigura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconfirma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsidera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconsolida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstitui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconstrui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconverti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reconvoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recristaliza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recroma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recuceri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recurba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redefini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeschide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redescoperi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeștepta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redeveni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rediagnostica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redilata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redimensiona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rediscuta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redisocia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redispărea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redistribui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redizolva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redobândi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduplica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reechilibra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reedita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeduca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reeșalona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reevalua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexpedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reexporta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refierbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refiltra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refolosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reformula</t>
   </si>
   <si>
     <r>
@@ -725,7 +464,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">refunc</t>
+      <t xml:space="preserve">reascu</t>
     </r>
     <r>
       <rPr>
@@ -742,10 +481,310 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ionaliza</t>
+      <t xml:space="preserve">i</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">reașeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasigura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reasocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reatașa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reatribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaudia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebadijona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebandaja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebetona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebiopsia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rebobina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reboteza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalcifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalcula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recalifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recanaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recântări</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recanula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăpăta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recarbura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recăsători</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recâștiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recateteriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recauteriza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recelulariza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recerceta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recicla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recircula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reciti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclădi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reclasifica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolmata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recoloniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recombina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recomenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompartimenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recompune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconcilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recondiționa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfigura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfirma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recongela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsidera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconsolida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstitui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconstrui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconverti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconvoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recristaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recroma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recuceri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recultiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redefini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redepune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeschide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redescoperi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeștepta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redeveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rediagnostica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redilata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redimensiona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rediscuta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redisocia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redispărea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redistribui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redizolva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redobândi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduplica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reechilibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reedita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeduca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reepitelializa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeșalona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reeșantiona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reevalua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexamina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexpedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reexporta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refierbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refiltra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refocaliza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refolosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reformula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refuncționaliza</t>
+  </si>
+  <si>
     <t xml:space="preserve">regândi</t>
   </si>
   <si>
@@ -779,6 +818,12 @@
     <t xml:space="preserve">reîmpărți</t>
   </si>
   <si>
+    <t xml:space="preserve">reimplanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reimplementa</t>
+  </si>
+  <si>
     <t xml:space="preserve">reimporta</t>
   </si>
   <si>
@@ -827,6 +872,9 @@
     <t xml:space="preserve">reîncorpora</t>
   </si>
   <si>
+    <t xml:space="preserve">reinerva</t>
+  </si>
+  <si>
     <t xml:space="preserve">reînfășura</t>
   </si>
   <si>
@@ -866,6 +914,9 @@
     <t xml:space="preserve">reînscăuna</t>
   </si>
   <si>
+    <t xml:space="preserve">reinsera</t>
+  </si>
+  <si>
     <t xml:space="preserve">reinstala</t>
   </si>
   <si>
@@ -920,6 +971,9 @@
     <t xml:space="preserve">reînturna</t>
   </si>
   <si>
+    <t xml:space="preserve">reinvagina</t>
+  </si>
+  <si>
     <t xml:space="preserve">reinventaria</t>
   </si>
   <si>
@@ -962,6 +1016,9 @@
     <t xml:space="preserve">rememora</t>
   </si>
   <si>
+    <t xml:space="preserve">remieliniza</t>
+  </si>
+  <si>
     <t xml:space="preserve">remilitariza</t>
   </si>
   <si>
@@ -974,6 +1031,9 @@
     <t xml:space="preserve">remodela</t>
   </si>
   <si>
+    <t xml:space="preserve">remodula</t>
+  </si>
+  <si>
     <t xml:space="preserve">remonta</t>
   </si>
   <si>
@@ -983,6 +1043,9 @@
     <t xml:space="preserve">renega</t>
   </si>
   <si>
+    <t xml:space="preserve">renormaliza</t>
+  </si>
+  <si>
     <t xml:space="preserve">reocupa</t>
   </si>
   <si>
@@ -1007,6 +1070,9 @@
     <t xml:space="preserve">reorienta</t>
   </si>
   <si>
+    <t xml:space="preserve">reoxida</t>
+  </si>
+  <si>
     <t xml:space="preserve">reoxigena</t>
   </si>
   <si>
@@ -1016,6 +1082,34 @@
     <t xml:space="preserve">repansa</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">reparti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ț</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iona</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">repauza</t>
   </si>
   <si>
@@ -1028,6 +1122,9 @@
     <t xml:space="preserve">repica</t>
   </si>
   <si>
+    <t xml:space="preserve">repigmenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">replanta</t>
   </si>
   <si>
@@ -1043,6 +1140,9 @@
     <t xml:space="preserve">repovesti</t>
   </si>
   <si>
+    <t xml:space="preserve">reprecipita</t>
+  </si>
+  <si>
     <t xml:space="preserve">represuriza</t>
   </si>
   <si>
@@ -1070,6 +1170,34 @@
     <t xml:space="preserve">republica</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">repunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ț</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iona</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">repune</t>
   </si>
   <si>
@@ -1079,12 +1207,21 @@
     <t xml:space="preserve">resabota</t>
   </si>
   <si>
+    <t xml:space="preserve">rescleroza</t>
+  </si>
+  <si>
     <t xml:space="preserve">rescrie</t>
   </si>
   <si>
+    <t xml:space="preserve">resecretiza</t>
+  </si>
+  <si>
     <t xml:space="preserve">resimți</t>
   </si>
   <si>
+    <t xml:space="preserve">resincroniza</t>
+  </si>
+  <si>
     <t xml:space="preserve">reșlefui</t>
   </si>
   <si>
@@ -1127,6 +1264,9 @@
     <t xml:space="preserve">retălmăci</t>
   </si>
   <si>
+    <t xml:space="preserve">retencui</t>
+  </si>
+  <si>
     <t xml:space="preserve">reține</t>
   </si>
   <si>
@@ -1152,6 +1292,9 @@
   </si>
   <si>
     <t xml:space="preserve">retrimite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retromboza</t>
   </si>
   <si>
     <t xml:space="preserve">reumple</t>
@@ -1528,13 +1671,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C416"/>
+  <dimension ref="A1:C447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C329" activeCellId="0" sqref="C329"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C366" activeCellId="0" sqref="C366"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.05"/>
@@ -2677,7 +2820,7 @@
       <c r="A104" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="0" t="s">
         <v>105</v>
       </c>
       <c r="C104" s="0" t="n">
@@ -2688,7 +2831,7 @@
       <c r="A105" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="0" t="n">
@@ -2787,7 +2930,7 @@
       <c r="A114" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="0" t="s">
         <v>115</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -2798,7 +2941,7 @@
       <c r="A115" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C115" s="0" t="n">
@@ -2820,7 +2963,7 @@
       <c r="A117" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="0" t="s">
         <v>118</v>
       </c>
       <c r="C117" s="0" t="n">
@@ -2831,7 +2974,7 @@
       <c r="A118" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C118" s="0" t="n">
@@ -2864,7 +3007,7 @@
       <c r="A121" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="0" t="s">
         <v>122</v>
       </c>
       <c r="C121" s="0" t="n">
@@ -2875,7 +3018,7 @@
       <c r="A122" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C122" s="0" t="n">
@@ -2996,7 +3139,7 @@
       <c r="A133" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="0" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="0" t="n">
@@ -3018,7 +3161,7 @@
       <c r="A135" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C135" s="0" t="n">
@@ -3183,7 +3326,7 @@
       <c r="A150" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="0" t="s">
         <v>151</v>
       </c>
       <c r="C150" s="0" t="n">
@@ -3216,7 +3359,7 @@
       <c r="A153" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C153" s="0" t="n">
@@ -3227,7 +3370,7 @@
       <c r="A154" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C154" s="0" t="n">
@@ -3238,7 +3381,7 @@
       <c r="A155" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C155" s="0" t="n">
@@ -3260,7 +3403,7 @@
       <c r="A157" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="0" t="s">
         <v>158</v>
       </c>
       <c r="C157" s="0" t="n">
@@ -3315,7 +3458,7 @@
       <c r="A162" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -3370,7 +3513,7 @@
       <c r="A167" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="0" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="0" t="n">
@@ -3392,7 +3535,7 @@
       <c r="A169" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="0" t="s">
         <v>170</v>
       </c>
       <c r="C169" s="0" t="n">
@@ -3436,7 +3579,7 @@
       <c r="A173" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B173" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C173" s="0" t="n">
@@ -3458,7 +3601,7 @@
       <c r="A175" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B175" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C175" s="0" t="n">
@@ -3535,7 +3678,7 @@
       <c r="A182" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="0" t="s">
         <v>183</v>
       </c>
       <c r="C182" s="0" t="n">
@@ -3546,7 +3689,7 @@
       <c r="A183" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C183" s="0" t="n">
@@ -3612,7 +3755,7 @@
       <c r="A189" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B189" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C189" s="0" t="n">
@@ -3623,7 +3766,7 @@
       <c r="A190" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="0" t="s">
         <v>191</v>
       </c>
       <c r="C190" s="0" t="n">
@@ -3656,7 +3799,7 @@
       <c r="A193" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="0" t="s">
         <v>194</v>
       </c>
       <c r="C193" s="0" t="n">
@@ -3711,7 +3854,7 @@
       <c r="A198" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B198" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C198" s="0" t="n">
@@ -3733,7 +3876,7 @@
       <c r="A200" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="0" t="s">
         <v>201</v>
       </c>
       <c r="C200" s="0" t="n">
@@ -3744,7 +3887,7 @@
       <c r="A201" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B201" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C201" s="0" t="n">
@@ -3821,7 +3964,7 @@
       <c r="A208" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="0" t="s">
         <v>209</v>
       </c>
       <c r="C208" s="0" t="n">
@@ -3832,7 +3975,7 @@
       <c r="A209" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B209" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C209" s="0" t="n">
@@ -3865,7 +4008,7 @@
       <c r="A212" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B212" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C212" s="0" t="n">
@@ -3887,7 +4030,7 @@
       <c r="A214" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="B214" s="0" t="s">
         <v>215</v>
       </c>
       <c r="C214" s="0" t="n">
@@ -3898,7 +4041,7 @@
       <c r="A215" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="B215" s="0" t="s">
         <v>216</v>
       </c>
       <c r="C215" s="0" t="n">
@@ -3931,7 +4074,7 @@
       <c r="A218" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B218" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C218" s="0" t="n">
@@ -3997,7 +4140,7 @@
       <c r="A224" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B224" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C224" s="0" t="n">
@@ -4008,7 +4151,7 @@
       <c r="A225" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B225" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C225" s="0" t="n">
@@ -4294,7 +4437,7 @@
       <c r="A251" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="0" t="s">
         <v>252</v>
       </c>
       <c r="C251" s="0" t="n">
@@ -4404,7 +4547,7 @@
       <c r="A261" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="0" t="s">
         <v>262</v>
       </c>
       <c r="C261" s="0" t="n">
@@ -4426,7 +4569,7 @@
       <c r="A263" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="B263" s="3" t="s">
+      <c r="B263" s="0" t="s">
         <v>264</v>
       </c>
       <c r="C263" s="0" t="n">
@@ -4459,7 +4602,7 @@
       <c r="A266" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="B266" s="0" t="s">
+      <c r="B266" s="1" t="s">
         <v>267</v>
       </c>
       <c r="C266" s="0" t="n">
@@ -4547,7 +4690,7 @@
       <c r="A274" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="B274" s="0" t="s">
+      <c r="B274" s="3" t="s">
         <v>275</v>
       </c>
       <c r="C274" s="0" t="n">
@@ -4580,7 +4723,7 @@
       <c r="A277" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="B277" s="0" t="s">
+      <c r="B277" s="1" t="s">
         <v>278</v>
       </c>
       <c r="C277" s="0" t="n">
@@ -4602,7 +4745,7 @@
       <c r="A279" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="B279" s="0" t="s">
+      <c r="B279" s="1" t="s">
         <v>280</v>
       </c>
       <c r="C279" s="0" t="n">
@@ -4800,7 +4943,7 @@
       <c r="A297" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="0" t="s">
         <v>298</v>
       </c>
       <c r="C297" s="0" t="n">
@@ -4844,7 +4987,7 @@
       <c r="A301" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="B301" s="0" t="s">
         <v>302</v>
       </c>
       <c r="C301" s="0" t="n">
@@ -4998,7 +5141,7 @@
       <c r="A315" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="B315" s="0" t="s">
+      <c r="B315" s="1" t="s">
         <v>316</v>
       </c>
       <c r="C315" s="0" t="n">
@@ -5042,7 +5185,7 @@
       <c r="A319" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C319" s="0" t="n">
@@ -5130,7 +5273,7 @@
       <c r="A327" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="B327" s="3" t="s">
+      <c r="B327" s="0" t="s">
         <v>328</v>
       </c>
       <c r="C327" s="0" t="n">
@@ -5174,7 +5317,7 @@
       <c r="A331" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="B331" s="0" t="s">
+      <c r="B331" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C331" s="0" t="n">
@@ -5251,7 +5394,7 @@
       <c r="A338" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="0" t="s">
         <v>339</v>
       </c>
       <c r="C338" s="0" t="n">
@@ -5273,7 +5416,7 @@
       <c r="A340" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="B340" s="0" t="s">
+      <c r="B340" s="3" t="s">
         <v>341</v>
       </c>
       <c r="C340" s="0" t="n">
@@ -5284,7 +5427,7 @@
       <c r="A341" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C341" s="0" t="n">
@@ -5295,7 +5438,7 @@
       <c r="A342" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="0" t="s">
         <v>343</v>
       </c>
       <c r="C342" s="0" t="n">
@@ -5394,7 +5537,7 @@
       <c r="A351" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="B351" s="0" t="s">
+      <c r="B351" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C351" s="0" t="n">
@@ -5438,7 +5581,7 @@
       <c r="A355" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="B355" s="0" t="s">
+      <c r="B355" s="3" t="s">
         <v>356</v>
       </c>
       <c r="C355" s="0" t="n">
@@ -5526,7 +5669,7 @@
       <c r="A363" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="B363" s="0" t="s">
+      <c r="B363" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C363" s="0" t="n">
@@ -5570,7 +5713,7 @@
       <c r="A367" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="B367" s="0" t="s">
+      <c r="B367" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C367" s="0" t="n">
@@ -5581,7 +5724,7 @@
       <c r="A368" s="0" t="n">
         <v>367</v>
       </c>
-      <c r="B368" s="0" t="s">
+      <c r="B368" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C368" s="0" t="n">
@@ -5592,7 +5735,7 @@
       <c r="A369" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="B369" s="0" t="s">
+      <c r="B369" s="3" t="s">
         <v>370</v>
       </c>
       <c r="C369" s="0" t="n">
@@ -5746,7 +5889,7 @@
       <c r="A383" s="0" t="n">
         <v>382</v>
       </c>
-      <c r="B383" s="0" t="s">
+      <c r="B383" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C383" s="0" t="n">
@@ -5779,198 +5922,198 @@
       <c r="A386" s="0" t="n">
         <v>385</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B386" s="0" t="s">
         <v>387</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="B387" s="4" t="s">
+      <c r="B387" s="0" t="s">
         <v>388</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="B388" s="4" t="s">
+      <c r="B388" s="3" t="s">
         <v>389</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="B389" s="0" t="s">
         <v>390</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B390" s="0" t="s">
         <v>391</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="B391" s="1" t="s">
+      <c r="B391" s="0" t="s">
         <v>392</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B392" s="0" t="s">
         <v>393</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="0" t="s">
         <v>394</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="n">
         <v>393</v>
       </c>
-      <c r="B394" s="1" t="s">
+      <c r="B394" s="0" t="s">
         <v>395</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="n">
         <v>394</v>
       </c>
-      <c r="B395" s="1" t="s">
+      <c r="B395" s="0" t="s">
         <v>396</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="n">
         <v>395</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="B396" s="0" t="s">
         <v>397</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="B397" s="1" t="s">
+      <c r="B397" s="0" t="s">
         <v>398</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B398" s="3" t="s">
         <v>399</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B399" s="0" t="s">
         <v>400</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B400" s="0" t="s">
         <v>401</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B401" s="0" t="s">
         <v>402</v>
       </c>
       <c r="C401" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B402" s="0" t="s">
         <v>403</v>
       </c>
       <c r="C402" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="n">
         <v>402</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" s="0" t="s">
         <v>404</v>
       </c>
       <c r="C403" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,62 +6124,62 @@
         <v>405</v>
       </c>
       <c r="C404" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="n">
         <v>404</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="0" t="s">
         <v>406</v>
       </c>
       <c r="C405" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="n">
         <v>405</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="0" t="s">
         <v>407</v>
       </c>
       <c r="C406" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="n">
         <v>406</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" s="0" t="s">
         <v>408</v>
       </c>
       <c r="C407" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="n">
         <v>407</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B408" s="0" t="s">
         <v>409</v>
       </c>
       <c r="C408" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="n">
         <v>408</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B409" s="0" t="s">
         <v>410</v>
       </c>
       <c r="C409" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,7 +6190,7 @@
         <v>411</v>
       </c>
       <c r="C410" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6058,61 +6201,402 @@
         <v>412</v>
       </c>
       <c r="C411" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B412" s="0" t="s">
         <v>413</v>
       </c>
       <c r="C412" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="n">
         <v>412</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" s="0" t="s">
         <v>414</v>
       </c>
       <c r="C413" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="n">
         <v>413</v>
       </c>
-      <c r="B414" s="1" t="s">
+      <c r="B414" s="0" t="s">
         <v>415</v>
       </c>
       <c r="C414" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="B415" s="0" t="s">
         <v>416</v>
       </c>
       <c r="C415" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="B416" s="1" t="s">
+      <c r="B416" s="0" t="s">
         <v>417</v>
       </c>
       <c r="C416" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C419" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C423" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C425" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C427" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C428" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C429" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C430" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C431" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C432" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C433" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C434" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C435" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C436" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C437" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C438" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C439" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C440" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="C441" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C442" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C443" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C444" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C445" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C446" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C447" s="0" t="n">
         <v>4</v>
       </c>
     </row>
